--- a/data/Invoice_data.xlsx
+++ b/data/Invoice_data.xlsx
@@ -4,20 +4,35 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="INV_1" sheetId="5" r:id="rId2"/>
     <sheet name="INV_2" sheetId="6" r:id="rId3"/>
     <sheet name="INV_3" sheetId="8" r:id="rId4"/>
+    <sheet name="INV_4" sheetId="9" r:id="rId5"/>
+    <sheet name="INV_5" sheetId="10" r:id="rId6"/>
+    <sheet name="INV_6" sheetId="11" r:id="rId7"/>
+    <sheet name="INV_7" sheetId="12" r:id="rId8"/>
+    <sheet name="INV_8" sheetId="13" r:id="rId9"/>
+    <sheet name="INV_9" sheetId="14" r:id="rId10"/>
+    <sheet name="INV_10" sheetId="16" r:id="rId11"/>
+    <sheet name="INV_11" sheetId="17" r:id="rId12"/>
+    <sheet name="INV_12" sheetId="18" r:id="rId13"/>
+    <sheet name="INV_13" sheetId="19" r:id="rId14"/>
+    <sheet name="INV_14" sheetId="20" r:id="rId15"/>
+    <sheet name="INV_16" sheetId="23" r:id="rId16"/>
+    <sheet name="INV_17" sheetId="21" r:id="rId17"/>
+    <sheet name="INV_18" sheetId="22" r:id="rId18"/>
+    <sheet name="INV_19" sheetId="24" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="114">
   <si>
     <t>username</t>
   </si>
@@ -64,9 +79,6 @@
     <t>karnataka</t>
   </si>
   <si>
-    <t>Item_description</t>
-  </si>
-  <si>
     <t>Ballpens</t>
   </si>
   <si>
@@ -185,6 +197,183 @@
   </si>
   <si>
     <t>1. New Customer name,2.Existing customer name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>29AABFN9870CMZO</t>
+  </si>
+  <si>
+    <t>1. New Customer name</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>dummy123@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9087654112</t>
+  </si>
+  <si>
+    <t>Jaya nagara</t>
+  </si>
+  <si>
+    <t>Harsha</t>
+  </si>
+  <si>
+    <t>Katriguppe</t>
+  </si>
+  <si>
+    <t>Bidar</t>
+  </si>
+  <si>
+    <t>Mubai , badra</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>11AABFN9870CMZQ</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>1234hui</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Kengeri</t>
+  </si>
+  <si>
+    <t>Tumkuru</t>
+  </si>
+  <si>
+    <t>Mubai , Belagavi</t>
+  </si>
+  <si>
+    <t>GSt For union teritory</t>
+  </si>
+  <si>
+    <t>Gst old</t>
+  </si>
+  <si>
+    <t>04ABBFN9870CMZQ</t>
+  </si>
+  <si>
+    <t>29AABFN9870CMZQ</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Item_Name</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Selling Price</t>
+  </si>
+  <si>
+    <t>Purchase price</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Auto_cust1</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>HeadPhone</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>Auto populated</t>
+  </si>
+  <si>
+    <t>AutoPopulated</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Item price</t>
+  </si>
+  <si>
+    <t>25.45</t>
+  </si>
+  <si>
+    <t>Darshan</t>
+  </si>
+  <si>
+    <t>Kanakapura</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>29ABBFN9870CMZQ</t>
+  </si>
+  <si>
+    <t>Emai to</t>
+  </si>
+  <si>
+    <t>Email cc</t>
+  </si>
+  <si>
+    <t>dummy@Email.in</t>
+  </si>
+  <si>
+    <t>Sudeep</t>
+  </si>
+  <si>
+    <t>Payment terms</t>
+  </si>
+  <si>
+    <t>Net 90</t>
+  </si>
+  <si>
+    <t>Auto_Cust2</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>item 1</t>
+  </si>
+  <si>
+    <t>Auto</t>
   </si>
 </sst>
 </file>
@@ -574,11 +763,1011 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+    <hyperlink ref="S2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -605,114 +1794,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -727,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +1963,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -785,28 +1974,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -843,114 +2032,871 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
       </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/Invoice_data.xlsx
+++ b/data/Invoice_data.xlsx
@@ -4,35 +4,41 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="INV_1" sheetId="5" r:id="rId2"/>
-    <sheet name="INV_2" sheetId="6" r:id="rId3"/>
-    <sheet name="INV_3" sheetId="8" r:id="rId4"/>
-    <sheet name="INV_4" sheetId="9" r:id="rId5"/>
-    <sheet name="INV_5" sheetId="10" r:id="rId6"/>
-    <sheet name="INV_6" sheetId="11" r:id="rId7"/>
-    <sheet name="INV_7" sheetId="12" r:id="rId8"/>
-    <sheet name="INV_8" sheetId="13" r:id="rId9"/>
-    <sheet name="INV_9" sheetId="14" r:id="rId10"/>
-    <sheet name="INV_10" sheetId="16" r:id="rId11"/>
-    <sheet name="INV_11" sheetId="17" r:id="rId12"/>
-    <sheet name="INV_12" sheetId="18" r:id="rId13"/>
-    <sheet name="INV_13" sheetId="19" r:id="rId14"/>
-    <sheet name="INV_14" sheetId="20" r:id="rId15"/>
-    <sheet name="INV_16" sheetId="23" r:id="rId16"/>
-    <sheet name="INV_17" sheetId="21" r:id="rId17"/>
-    <sheet name="INV_18" sheetId="22" r:id="rId18"/>
-    <sheet name="INV_19" sheetId="24" r:id="rId19"/>
+    <sheet name="Init" sheetId="32" r:id="rId2"/>
+    <sheet name="INV_1" sheetId="5" r:id="rId3"/>
+    <sheet name="INV_2" sheetId="6" r:id="rId4"/>
+    <sheet name="INV_3" sheetId="8" r:id="rId5"/>
+    <sheet name="INV_4" sheetId="9" r:id="rId6"/>
+    <sheet name="INV_5" sheetId="10" r:id="rId7"/>
+    <sheet name="INV_6" sheetId="11" r:id="rId8"/>
+    <sheet name="INV_7" sheetId="12" r:id="rId9"/>
+    <sheet name="INV_8" sheetId="13" r:id="rId10"/>
+    <sheet name="INV_9" sheetId="14" r:id="rId11"/>
+    <sheet name="INV_10" sheetId="16" r:id="rId12"/>
+    <sheet name="INV_11" sheetId="17" r:id="rId13"/>
+    <sheet name="INV_12" sheetId="18" r:id="rId14"/>
+    <sheet name="INV_13" sheetId="19" r:id="rId15"/>
+    <sheet name="INV_14" sheetId="20" r:id="rId16"/>
+    <sheet name="INV_15" sheetId="25" r:id="rId17"/>
+    <sheet name="INV_16" sheetId="23" r:id="rId18"/>
+    <sheet name="INV_17" sheetId="21" r:id="rId19"/>
+    <sheet name="INV_18" sheetId="22" r:id="rId20"/>
+    <sheet name="INV_19" sheetId="24" r:id="rId21"/>
+    <sheet name="INV_20" sheetId="26" r:id="rId22"/>
+    <sheet name="INV_21" sheetId="27" r:id="rId23"/>
+    <sheet name="INV_22" sheetId="29" r:id="rId24"/>
+    <sheet name="INV_23" sheetId="31" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="127">
   <si>
     <t>username</t>
   </si>
@@ -166,9 +172,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>Karnataka,Maharashtra,Delhi,Chennai,Agra</t>
-  </si>
-  <si>
     <t>Shipping address 1&amp;2</t>
   </si>
   <si>
@@ -374,6 +377,48 @@
   </si>
   <si>
     <t>Auto</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Auto Populated</t>
+  </si>
+  <si>
+    <t>Auto_Cust1</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Basavanagudi</t>
+  </si>
+  <si>
+    <t>File path</t>
+  </si>
+  <si>
+    <t>C:/Users/harsha/Desktop/sample.pdf</t>
+  </si>
+  <si>
+    <t>Terms and condition</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Payment detail</t>
+  </si>
+  <si>
+    <t>Payment done</t>
+  </si>
+  <si>
+    <t>Terms and conditions are applicable</t>
+  </si>
+  <si>
+    <t>Notes Filled</t>
+  </si>
+  <si>
+    <t>GST</t>
   </si>
 </sst>
 </file>
@@ -765,9 +810,164 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -789,16 +989,16 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,19 +1006,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -826,12 +1026,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,39 +1077,39 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +1117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -943,16 +1143,16 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,19 +1160,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -980,12 +1180,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,10 +1231,10 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1045,31 +1245,31 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +1277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1128,45 +1328,45 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1225,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1236,25 +1436,25 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -1266,12 +1466,110 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,45 +1616,45 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -1395,10 +1693,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -1419,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -1446,24 +1744,24 @@
         <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1472,16 +1770,16 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -1490,19 +1788,19 @@
         <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1513,12 +1811,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,10 +1872,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -1569,7 +1896,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -1596,27 +1923,27 @@
         <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1625,16 +1952,16 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -1643,22 +1970,22 @@
         <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1722,39 +2049,39 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -1763,12 +2090,467 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,7 +2600,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -1845,7 +2627,7 @@
         <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1871,16 +2653,16 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -1889,19 +2671,19 @@
         <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1912,7 +2694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1963,7 +2745,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1974,178 +2756,31 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2154,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,7 +2816,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -2205,7 +2840,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -2232,21 +2867,21 @@
         <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -2258,16 +2893,16 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -2276,19 +2911,19 @@
         <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>56</v>
+      <c r="R2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2303,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2965,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -2354,7 +2989,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -2381,24 +3016,24 @@
         <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -2407,16 +3042,16 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -2425,19 +3060,19 @@
         <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +3088,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,7 +3114,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -2503,7 +3138,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -2530,24 +3165,24 @@
         <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -2556,16 +3191,16 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -2574,19 +3209,19 @@
         <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +3234,159 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,7 +3412,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -2652,7 +3436,7 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -2673,33 +3457,33 @@
         <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
         <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -2708,195 +3492,40 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="dummy@mail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/Invoice_data.xlsx
+++ b/data/Invoice_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="128">
   <si>
     <t>username</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>GST</t>
+  </si>
+  <si>
+    <t>/INVSample.pdf</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,7 +569,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1470,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1556,7 +1559,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/data/Invoice_data.xlsx
+++ b/data/Invoice_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" firstSheet="5" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" firstSheet="16" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="130">
   <si>
     <t>username</t>
   </si>
@@ -397,9 +397,6 @@
     <t>File path</t>
   </si>
   <si>
-    <t>C:/Users/harsha/Desktop/sample.pdf</t>
-  </si>
-  <si>
     <t>Terms and condition</t>
   </si>
   <si>
@@ -421,7 +418,16 @@
     <t>GST</t>
   </si>
   <si>
-    <t>/INVSample.pdf</t>
+    <t>Billing address state(mIn 5)</t>
+  </si>
+  <si>
+    <t>Shipping address city(mIn 5)</t>
+  </si>
+  <si>
+    <t>Shipping address state(mIn 5)</t>
+  </si>
+  <si>
+    <t>sample files/INVSample.pdf</t>
   </si>
 </sst>
 </file>
@@ -815,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,10 +834,10 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
@@ -863,16 +869,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -1033,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1473,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1489,7 +1495,7 @@
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" customWidth="1"/>
+    <col min="11" max="11" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1559,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1669,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1688,7 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
     <col min="11" max="11" width="37.140625" customWidth="1"/>
@@ -1717,16 +1723,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -1829,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1866,7 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
     <col min="11" max="11" width="37.140625" customWidth="1"/>
@@ -1896,16 +1902,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -2433,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,13 +2496,13 @@
         <v>118</v>
       </c>
       <c r="L1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" t="s">
         <v>120</v>
-      </c>
-      <c r="N1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2531,16 +2537,16 @@
         <v>110</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" t="s">
         <v>123</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>124</v>
-      </c>
-      <c r="N2" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2552,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,10 +2571,10 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
@@ -2600,16 +2606,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -2792,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,10 +2811,10 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
@@ -2840,16 +2846,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -2942,7 +2948,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,10 +2960,10 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
@@ -2989,16 +2995,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -3090,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,10 +3109,10 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
@@ -3138,16 +3144,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -3239,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,10 +3258,10 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
@@ -3287,16 +3293,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -3388,8 +3394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,10 +3407,10 @@
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="37.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
@@ -3436,16 +3442,16 @@
         <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>

--- a/data/Invoice_data.xlsx
+++ b/data/Invoice_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" firstSheet="16" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="131">
   <si>
     <t>username</t>
   </si>
@@ -49,385 +49,388 @@
     <t>Test@123</t>
   </si>
   <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>A_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shipping Address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>Addressl2</t>
+  </si>
+  <si>
+    <t>Place of supply</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>karnataka</t>
+  </si>
+  <si>
+    <t>Ballpens</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Customer name</t>
+  </si>
+  <si>
+    <t>Emai</t>
+  </si>
+  <si>
+    <t>dummy@email.com</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Billing address Line1</t>
+  </si>
+  <si>
+    <t>Billing address city</t>
+  </si>
+  <si>
+    <t>Billing address Line2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9087654321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengaluru rural </t>
+  </si>
+  <si>
+    <t>Banashankari</t>
+  </si>
+  <si>
+    <t>560088</t>
+  </si>
+  <si>
+    <t>Billing address pincodeBilling address pincode</t>
+  </si>
+  <si>
+    <t>Billing address state</t>
+  </si>
+  <si>
+    <t>Bengaluru,Mysuru,Davangere,Hubli,Bidar</t>
+  </si>
+  <si>
+    <t>Shipping address city</t>
+  </si>
+  <si>
+    <t>Mubai,Bandra,Kalgatgi,Madduru,Chikkodi</t>
+  </si>
+  <si>
+    <t>Shipping address state</t>
+  </si>
+  <si>
+    <t>Shipping address Pincode</t>
+  </si>
+  <si>
+    <t>46001</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>ServiceTaxNumber</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>GSt</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Shipping address 1&amp;2</t>
+  </si>
+  <si>
+    <t>Mubai area,Mubai badra</t>
+  </si>
+  <si>
+    <t>Karnataka,Maharashtra,Delhi,Tamil Nadu,Kerala</t>
+  </si>
+  <si>
+    <t>AABFN9870CSD002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21711100073</t>
+  </si>
+  <si>
+    <t>14AABFN9870CMZT</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>Ballpen</t>
+  </si>
+  <si>
+    <t>John,A_test</t>
+  </si>
+  <si>
+    <t>1. New Customer name,2.Existing customer name</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>29AABFN9870CMZO</t>
+  </si>
+  <si>
+    <t>1. New Customer name</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>dummy123@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9087654112</t>
+  </si>
+  <si>
+    <t>Jaya nagara</t>
+  </si>
+  <si>
+    <t>Harsha</t>
+  </si>
+  <si>
+    <t>Katriguppe</t>
+  </si>
+  <si>
+    <t>Bidar</t>
+  </si>
+  <si>
+    <t>Mubai , badra</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>11AABFN9870CMZQ</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>1234hui</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Kengeri</t>
+  </si>
+  <si>
+    <t>Tumkuru</t>
+  </si>
+  <si>
+    <t>Mubai , Belagavi</t>
+  </si>
+  <si>
+    <t>GSt For union teritory</t>
+  </si>
+  <si>
+    <t>Gst old</t>
+  </si>
+  <si>
+    <t>04ABBFN9870CMZQ</t>
+  </si>
+  <si>
+    <t>29AABFN9870CMZQ</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Item_Name</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Selling Price</t>
+  </si>
+  <si>
+    <t>Purchase price</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Auto_cust1</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>HeadPhone</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>Auto populated</t>
+  </si>
+  <si>
+    <t>AutoPopulated</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Item price</t>
+  </si>
+  <si>
+    <t>25.45</t>
+  </si>
+  <si>
+    <t>Darshan</t>
+  </si>
+  <si>
+    <t>Kanakapura</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>29ABBFN9870CMZQ</t>
+  </si>
+  <si>
+    <t>Emai to</t>
+  </si>
+  <si>
+    <t>Email cc</t>
+  </si>
+  <si>
+    <t>dummy@Email.in</t>
+  </si>
+  <si>
+    <t>Sudeep</t>
+  </si>
+  <si>
+    <t>Payment terms</t>
+  </si>
+  <si>
+    <t>Net 90</t>
+  </si>
+  <si>
+    <t>Auto_Cust2</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Auto Populated</t>
+  </si>
+  <si>
+    <t>Auto_Cust1</t>
+  </si>
+  <si>
+    <t>Geeta</t>
+  </si>
+  <si>
+    <t>Basavanagudi</t>
+  </si>
+  <si>
+    <t>File path</t>
+  </si>
+  <si>
+    <t>Terms and condition</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Payment detail</t>
+  </si>
+  <si>
+    <t>Payment done</t>
+  </si>
+  <si>
+    <t>Terms and conditions are applicable</t>
+  </si>
+  <si>
+    <t>Notes Filled</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>Billing address state(mIn 5)</t>
+  </si>
+  <si>
+    <t>Shipping address city(mIn 5)</t>
+  </si>
+  <si>
+    <t>Shipping address state(mIn 5)</t>
+  </si>
+  <si>
+    <t>testing@numberz.in</t>
+  </si>
+  <si>
+    <t>numberztest@098</t>
+  </si>
+  <si>
     <t>gopi@mailinator.com</t>
   </si>
   <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
-    <t>A_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shipping Address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
-    <t>Addressl2</t>
-  </si>
-  <si>
-    <t>Place of supply</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>karnataka</t>
-  </si>
-  <si>
-    <t>Ballpens</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Customer name</t>
-  </si>
-  <si>
-    <t>Emai</t>
-  </si>
-  <si>
-    <t>dummy@email.com</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>Billing address Line1</t>
-  </si>
-  <si>
-    <t>Billing address city</t>
-  </si>
-  <si>
-    <t>Billing address Line2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9087654321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bengaluru rural </t>
-  </si>
-  <si>
-    <t>Banashankari</t>
-  </si>
-  <si>
-    <t>560088</t>
-  </si>
-  <si>
-    <t>Billing address pincodeBilling address pincode</t>
-  </si>
-  <si>
-    <t>Billing address state</t>
-  </si>
-  <si>
-    <t>Bengaluru,Mysuru,Davangere,Hubli,Bidar</t>
-  </si>
-  <si>
-    <t>Shipping address city</t>
-  </si>
-  <si>
-    <t>Mubai,Bandra,Kalgatgi,Madduru,Chikkodi</t>
-  </si>
-  <si>
-    <t>Shipping address state</t>
-  </si>
-  <si>
-    <t>Shipping address Pincode</t>
-  </si>
-  <si>
-    <t>46001</t>
-  </si>
-  <si>
-    <t>Pan</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>ServiceTaxNumber</t>
-  </si>
-  <si>
-    <t>Tin</t>
-  </si>
-  <si>
-    <t>GSt</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Shipping address 1&amp;2</t>
-  </si>
-  <si>
-    <t>Mubai area,Mubai badra</t>
-  </si>
-  <si>
-    <t>Karnataka,Maharashtra,Delhi,Tamil Nadu,Kerala</t>
-  </si>
-  <si>
-    <t>AABFN9870CSD002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21711100073</t>
-  </si>
-  <si>
-    <t>14AABFN9870CMZT</t>
-  </si>
-  <si>
-    <t>ItemName</t>
-  </si>
-  <si>
-    <t>Ballpen</t>
-  </si>
-  <si>
-    <t>John,A_test</t>
-  </si>
-  <si>
-    <t>1. New Customer name,2.Existing customer name</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Books</t>
-  </si>
-  <si>
-    <t>29AABFN9870CMZO</t>
-  </si>
-  <si>
-    <t>1. New Customer name</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>dummy123@email.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9087654112</t>
-  </si>
-  <si>
-    <t>Jaya nagara</t>
-  </si>
-  <si>
-    <t>Harsha</t>
-  </si>
-  <si>
-    <t>Katriguppe</t>
-  </si>
-  <si>
-    <t>Bidar</t>
-  </si>
-  <si>
-    <t>Mubai , badra</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>11AABFN9870CMZQ</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>1234hui</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>Kengeri</t>
-  </si>
-  <si>
-    <t>Tumkuru</t>
-  </si>
-  <si>
-    <t>Mubai , Belagavi</t>
-  </si>
-  <si>
-    <t>GSt For union teritory</t>
-  </si>
-  <si>
-    <t>Gst old</t>
-  </si>
-  <si>
-    <t>04ABBFN9870CMZQ</t>
-  </si>
-  <si>
-    <t>29AABFN9870CMZQ</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Item_Name</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Selling Price</t>
-  </si>
-  <si>
-    <t>Purchase price</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Auto_cust1</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>HeadPhone</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>Auto populated</t>
-  </si>
-  <si>
-    <t>AutoPopulated</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Hat</t>
-  </si>
-  <si>
-    <t>Item price</t>
-  </si>
-  <si>
-    <t>25.45</t>
-  </si>
-  <si>
-    <t>Darshan</t>
-  </si>
-  <si>
-    <t>Kanakapura</t>
-  </si>
-  <si>
-    <t>Bengaluru</t>
-  </si>
-  <si>
-    <t>29ABBFN9870CMZQ</t>
-  </si>
-  <si>
-    <t>Emai to</t>
-  </si>
-  <si>
-    <t>Email cc</t>
-  </si>
-  <si>
-    <t>dummy@Email.in</t>
-  </si>
-  <si>
-    <t>Sudeep</t>
-  </si>
-  <si>
-    <t>Payment terms</t>
-  </si>
-  <si>
-    <t>Net 90</t>
-  </si>
-  <si>
-    <t>Auto_Cust2</t>
-  </si>
-  <si>
-    <t>Pencil</t>
-  </si>
-  <si>
-    <t>item 1</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Auto Populated</t>
-  </si>
-  <si>
-    <t>Auto_Cust1</t>
-  </si>
-  <si>
-    <t>Geeta</t>
-  </si>
-  <si>
-    <t>Basavanagudi</t>
-  </si>
-  <si>
-    <t>File path</t>
-  </si>
-  <si>
-    <t>Terms and condition</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Payment detail</t>
-  </si>
-  <si>
-    <t>Payment done</t>
-  </si>
-  <si>
-    <t>Terms and conditions are applicable</t>
-  </si>
-  <si>
-    <t>Notes Filled</t>
-  </si>
-  <si>
-    <t>GST</t>
-  </si>
-  <si>
-    <t>Billing address state(mIn 5)</t>
-  </si>
-  <si>
-    <t>Shipping address city(mIn 5)</t>
-  </si>
-  <si>
-    <t>Shipping address state(mIn 5)</t>
-  </si>
-  <si>
-    <t>sample files/INVSample.pdf</t>
+    <t>G:/work/Numberz-new/Framework/data/sample.pdf</t>
   </si>
 </sst>
 </file>
@@ -474,11 +477,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,7 +579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -787,10 +791,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -802,7 +810,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -821,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,120 +856,120 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -992,42 +1000,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1039,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,66 +1067,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1139,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,42 +1154,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1213,72 +1221,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1310,72 +1318,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1387,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,66 +1415,66 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -1479,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1500,72 +1508,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1598,72 +1606,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1702,114 +1710,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1835,12 +1843,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -1853,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1881,120 +1889,120 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -2031,66 +2039,66 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>110</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -2103,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2124,66 +2132,66 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -2194,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,75 +2220,91 @@
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2289,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,114 +2340,114 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
       <c r="P1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S2" s="2"/>
     </row>
@@ -2439,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,90 +2487,90 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
         <v>118</v>
-      </c>
-      <c r="L1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>110</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" t="s">
         <v>122</v>
-      </c>
-      <c r="M2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2585,114 +2609,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2707,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,66 +2751,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2825,114 +2849,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2947,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2974,114 +2998,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -3123,114 +3147,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -3272,114 +3296,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3394,7 +3418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -3421,120 +3445,120 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
-        <v>40</v>
-      </c>
       <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
         <v>74</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="P2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/Invoice_data.xlsx
+++ b/data/Invoice_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" firstSheet="19" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="120">
   <si>
     <t>username</t>
   </si>
@@ -52,9 +52,6 @@
     <t>CustomerName</t>
   </si>
   <si>
-    <t>A_test</t>
-  </si>
-  <si>
     <t xml:space="preserve"> shipping Address</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>karnataka</t>
   </si>
   <si>
-    <t>Ballpens</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -190,21 +184,9 @@
     <t>ItemName</t>
   </si>
   <si>
-    <t>Ballpen</t>
-  </si>
-  <si>
-    <t>John,A_test</t>
-  </si>
-  <si>
     <t>1. New Customer name,2.Existing customer name</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Books</t>
-  </si>
-  <si>
     <t>29AABFN9870CMZO</t>
   </si>
   <si>
@@ -292,9 +274,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Auto_cust1</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -304,9 +283,6 @@
     <t>7000</t>
   </si>
   <si>
-    <t>HeadPhone</t>
-  </si>
-  <si>
     <t>900</t>
   </si>
   <si>
@@ -325,9 +301,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>Hat</t>
-  </si>
-  <si>
     <t>Item price</t>
   </si>
   <si>
@@ -364,24 +337,15 @@
     <t>Net 90</t>
   </si>
   <si>
-    <t>Auto_Cust2</t>
-  </si>
-  <si>
     <t>Pencil</t>
   </si>
   <si>
     <t>Auto</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
     <t>Auto Populated</t>
   </si>
   <si>
-    <t>Auto_Cust1</t>
-  </si>
-  <si>
     <t>Geeta</t>
   </si>
   <si>
@@ -427,10 +391,13 @@
     <t>numberztest@098</t>
   </si>
   <si>
-    <t>gopi@mailinator.com</t>
-  </si>
-  <si>
-    <t>G:/work/Numberz-new/Framework/data/sample.pdf</t>
+    <t>INVSample.pdf</t>
+  </si>
+  <si>
+    <t>John,John</t>
+  </si>
+  <si>
+    <t>john</t>
   </si>
 </sst>
 </file>
@@ -810,7 +777,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -829,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -856,120 +823,120 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +952,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,39 +970,39 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1047,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,63 +1037,63 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1157,39 +1124,39 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1169,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,69 +1191,69 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1298,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,69 +1288,69 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1363,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,63 +1385,63 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -1487,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1511,69 +1478,69 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1585,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,69 +1576,69 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1683,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,114 +1677,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +1810,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -1862,7 +1829,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,120 +1856,120 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +1986,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,63 +2009,63 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -2111,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2135,63 +2102,63 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -2204,7 +2171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2229,31 +2196,31 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -2264,40 +2231,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2281,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,114 +2307,114 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="S2" s="2"/>
     </row>
@@ -2463,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,7 +2446,7 @@
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" customWidth="1"/>
+    <col min="11" max="11" width="55.140625" customWidth="1"/>
     <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="32.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" customWidth="1"/>
@@ -2490,87 +2457,87 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
       <c r="N2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2582,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,114 +2576,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2731,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,63 +2721,63 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2822,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,114 +2816,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +2939,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,114 +2965,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3121,7 +3088,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,114 +3114,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3237,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,114 +3263,114 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3419,7 +3386,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,120 +3412,120 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/Invoice_data.xlsx
+++ b/data/Invoice_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="121">
   <si>
     <t>username</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>john</t>
+  </si>
+  <si>
+    <t>madhan+99@numberz.in</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -777,7 +780,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1454,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
